--- a/docs/samples/SMF-Template-Zacks-Earnings-Annoucements.xlsx
+++ b/docs/samples/SMF-Template-Zacks-Earnings-Annoucements.xlsx
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="Ticker">Sheet1!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1" iterateCount="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Fiscal Quarter</t>
   </si>
@@ -48,13 +48,25 @@
   <si>
     <t>AAPL</t>
   </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>1286 to 1400</t>
+  </si>
+  <si>
+    <t>smf-elements-8.txt</t>
+  </si>
+  <si>
+    <t>Elements file</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -128,7 +140,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +493,7 @@
     <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" style="1" customWidth="1"/>
@@ -489,7 +501,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -497,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
@@ -519,11 +531,17 @@
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1290)</f>
-        <v xml:space="preserve"> 5/4/23</v>
+        <v xml:space="preserve"> 8/3/23</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1289)</f>
@@ -531,29 +549,35 @@
       </c>
       <c r="D5" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1286)</f>
-        <v xml:space="preserve"> 3/2023</v>
+        <v xml:space="preserve"> 6/2023</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1288)</f>
-        <v xml:space="preserve"> $1.52</v>
+        <v xml:space="preserve"> $1.26</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1287)</f>
-        <v xml:space="preserve"> $1.44</v>
+        <v xml:space="preserve"> $1.19</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ref="G5:G27" si="0">IF(ISERR(F5/E5),"--",E5-F5)</f>
-        <v>8.0000000000000071E-2</v>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H27" si="1">IF(ISERR(F5/E5),"--",G5/F5)</f>
-        <v>5.5555555555555608E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.8823529411764761E-2</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1295)</f>
-        <v xml:space="preserve"> 2/2/23</v>
+        <v xml:space="preserve"> 5/4/23</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1294)</f>
@@ -561,29 +585,29 @@
       </c>
       <c r="D6" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1291)</f>
-        <v xml:space="preserve"> 12/2022</v>
+        <v xml:space="preserve"> 3/2023</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1293)</f>
-        <v xml:space="preserve"> $1.88</v>
+        <v xml:space="preserve"> $1.52</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1292)</f>
-        <v xml:space="preserve"> $1.93</v>
+        <v xml:space="preserve"> $1.44</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
-        <v>-2.5906735751295359E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.5555555555555608E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1300)</f>
-        <v xml:space="preserve"> 10/27/22</v>
+        <v xml:space="preserve"> 2/2/23</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1299)</f>
@@ -591,29 +615,29 @@
       </c>
       <c r="D7" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1296)</f>
-        <v xml:space="preserve"> 9/2022</v>
+        <v xml:space="preserve"> 12/2022</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1298)</f>
-        <v xml:space="preserve"> $1.29</v>
+        <v xml:space="preserve"> $1.88</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1297)</f>
-        <v xml:space="preserve"> $1.26</v>
+        <v xml:space="preserve"> $1.93</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>3.0000000000000027E-2</v>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>2.3809523809523829E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2.5906735751295359E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1305)</f>
-        <v xml:space="preserve"> 7/28/22</v>
+        <v xml:space="preserve"> 10/27/22</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1304)</f>
@@ -621,29 +645,29 @@
       </c>
       <c r="D8" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1301)</f>
-        <v xml:space="preserve"> 6/2022</v>
+        <v xml:space="preserve"> 9/2022</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1303)</f>
-        <v xml:space="preserve"> $1.20</v>
+        <v xml:space="preserve"> $1.29</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1302)</f>
-        <v xml:space="preserve"> $1.14</v>
+        <v xml:space="preserve"> $1.26</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>6.0000000000000053E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>5.2631578947368474E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.3809523809523829E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1310)</f>
-        <v xml:space="preserve"> 4/28/22</v>
+        <v xml:space="preserve"> 7/28/22</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1309)</f>
@@ -651,29 +675,29 @@
       </c>
       <c r="D9" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1306)</f>
-        <v xml:space="preserve"> 3/2022</v>
+        <v xml:space="preserve"> 6/2022</v>
       </c>
       <c r="E9" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1308)</f>
-        <v xml:space="preserve"> $1.52</v>
+        <v xml:space="preserve"> $1.20</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1307)</f>
-        <v xml:space="preserve"> $1.43</v>
+        <v xml:space="preserve"> $1.14</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>9.000000000000008E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>6.2937062937062999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.2631578947368474E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1315)</f>
-        <v xml:space="preserve"> 1/27/22</v>
+        <v xml:space="preserve"> 4/28/22</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1314)</f>
@@ -681,29 +705,29 @@
       </c>
       <c r="D10" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1311)</f>
-        <v xml:space="preserve"> 12/2021</v>
+        <v xml:space="preserve"> 3/2022</v>
       </c>
       <c r="E10" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1313)</f>
-        <v xml:space="preserve"> $2.10</v>
+        <v xml:space="preserve"> $1.52</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1312)</f>
-        <v xml:space="preserve"> $1.89</v>
+        <v xml:space="preserve"> $1.43</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.21000000000000019</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>0.11111111111111122</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.2937062937062999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1320)</f>
-        <v xml:space="preserve"> 10/28/21</v>
+        <v xml:space="preserve"> 1/27/22</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1319)</f>
@@ -711,29 +735,29 @@
       </c>
       <c r="D11" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1316)</f>
-        <v xml:space="preserve"> 9/2021</v>
+        <v xml:space="preserve"> 12/2021</v>
       </c>
       <c r="E11" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1318)</f>
-        <v xml:space="preserve"> $1.24</v>
+        <v xml:space="preserve"> $2.10</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1317)</f>
-        <v xml:space="preserve"> $1.24</v>
+        <v xml:space="preserve"> $1.89</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.21000000000000019</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.11111111111111122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1325)</f>
-        <v xml:space="preserve"> 7/27/21</v>
+        <v xml:space="preserve"> 10/28/21</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1324)</f>
@@ -741,29 +765,29 @@
       </c>
       <c r="D12" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1321)</f>
-        <v xml:space="preserve"> 6/2021</v>
+        <v xml:space="preserve"> 9/2021</v>
       </c>
       <c r="E12" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1323)</f>
-        <v xml:space="preserve"> $1.30</v>
+        <v xml:space="preserve"> $1.24</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1322)</f>
-        <v xml:space="preserve"> $1.00</v>
+        <v xml:space="preserve"> $1.24</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1330)</f>
-        <v xml:space="preserve"> 4/28/21</v>
+        <v xml:space="preserve"> 7/27/21</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1329)</f>
@@ -771,11 +795,11 @@
       </c>
       <c r="D13" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1326)</f>
-        <v xml:space="preserve"> 3/2021</v>
+        <v xml:space="preserve"> 6/2021</v>
       </c>
       <c r="E13" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1328)</f>
-        <v xml:space="preserve"> $1.40</v>
+        <v xml:space="preserve"> $1.30</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1327)</f>
@@ -783,17 +807,17 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>0.39999999999999991</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="1"/>
-        <v>0.39999999999999991</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1335)</f>
-        <v xml:space="preserve"> 1/27/21</v>
+        <v xml:space="preserve"> 4/28/21</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1334)</f>
@@ -801,29 +825,29 @@
       </c>
       <c r="D14" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1331)</f>
-        <v xml:space="preserve"> 12/2020</v>
+        <v xml:space="preserve"> 3/2021</v>
       </c>
       <c r="E14" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1333)</f>
-        <v xml:space="preserve"> $1.68</v>
+        <v xml:space="preserve"> $1.40</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1332)</f>
-        <v xml:space="preserve"> $1.41</v>
+        <v xml:space="preserve"> $1.00</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="1"/>
-        <v>0.19148936170212769</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1340)</f>
-        <v xml:space="preserve"> 10/29/20</v>
+        <v xml:space="preserve"> 1/27/21</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1339)</f>
@@ -831,29 +855,29 @@
       </c>
       <c r="D15" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1336)</f>
-        <v xml:space="preserve"> 9/2020</v>
+        <v xml:space="preserve"> 12/2020</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1338)</f>
-        <v xml:space="preserve"> $0.73</v>
+        <v xml:space="preserve"> $1.68</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1337)</f>
-        <v xml:space="preserve"> $0.69</v>
+        <v xml:space="preserve"> $1.41</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.27</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>5.7971014492753679E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.19148936170212769</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1345)</f>
-        <v xml:space="preserve"> 7/30/20</v>
+        <v xml:space="preserve"> 10/29/20</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1344)</f>
@@ -861,29 +885,29 @@
       </c>
       <c r="D16" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1341)</f>
-        <v xml:space="preserve"> 6/2020</v>
+        <v xml:space="preserve"> 9/2020</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1343)</f>
-        <v xml:space="preserve"> $0.65</v>
+        <v xml:space="preserve"> $0.73</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1342)</f>
-        <v xml:space="preserve"> $0.51</v>
+        <v xml:space="preserve"> $0.69</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>0.27450980392156865</v>
+        <v>5.7971014492753679E-2</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1350)</f>
-        <v xml:space="preserve"> 4/30/20</v>
+        <v xml:space="preserve"> 7/30/20</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1349)</f>
@@ -891,29 +915,29 @@
       </c>
       <c r="D17" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1346)</f>
-        <v xml:space="preserve"> 3/2020</v>
+        <v xml:space="preserve"> 6/2020</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1348)</f>
-        <v xml:space="preserve"> $0.64</v>
+        <v xml:space="preserve"> $0.65</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1347)</f>
-        <v xml:space="preserve"> $0.52</v>
+        <v xml:space="preserve"> $0.51</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="1"/>
-        <v>0.23076923076923075</v>
+        <v>0.27450980392156865</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1355)</f>
-        <v xml:space="preserve"> 1/28/20</v>
+        <v xml:space="preserve"> 4/30/20</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1354)</f>
@@ -921,29 +945,29 @@
       </c>
       <c r="D18" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1351)</f>
-        <v xml:space="preserve"> 12/2019</v>
+        <v xml:space="preserve"> 3/2020</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1353)</f>
-        <v xml:space="preserve"> $1.25</v>
+        <v xml:space="preserve"> $0.64</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1352)</f>
-        <v xml:space="preserve"> $1.14</v>
+        <v xml:space="preserve"> $0.52</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>0.1100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="1"/>
-        <v>9.649122807017553E-2</v>
+        <v>0.23076923076923075</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1360)</f>
-        <v xml:space="preserve"> 10/30/19</v>
+        <v xml:space="preserve"> 1/28/20</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1359)</f>
@@ -951,29 +975,29 @@
       </c>
       <c r="D19" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1356)</f>
-        <v xml:space="preserve"> 9/2019</v>
+        <v xml:space="preserve"> 12/2019</v>
       </c>
       <c r="E19" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1358)</f>
-        <v xml:space="preserve"> $0.76</v>
+        <v xml:space="preserve"> $1.25</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1357)</f>
-        <v xml:space="preserve"> $0.71</v>
+        <v xml:space="preserve"> $1.14</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.1100000000000001</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="1"/>
-        <v>7.0422535211267678E-2</v>
+        <v>9.649122807017553E-2</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1365)</f>
-        <v xml:space="preserve"> 7/30/19</v>
+        <v xml:space="preserve"> 10/30/19</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1364)</f>
@@ -981,29 +1005,29 @@
       </c>
       <c r="D20" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1361)</f>
-        <v xml:space="preserve"> 6/2019</v>
+        <v xml:space="preserve"> 9/2019</v>
       </c>
       <c r="E20" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1363)</f>
-        <v xml:space="preserve"> $0.55</v>
+        <v xml:space="preserve"> $0.76</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1362)</f>
-        <v xml:space="preserve"> $0.53</v>
+        <v xml:space="preserve"> $0.71</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>2.0000000000000018E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="1"/>
-        <v>3.7735849056603807E-2</v>
+        <v>7.0422535211267678E-2</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1370)</f>
-        <v xml:space="preserve"> 4/30/19</v>
+        <v xml:space="preserve"> 7/30/19</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1369)</f>
@@ -1011,29 +1035,29 @@
       </c>
       <c r="D21" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1366)</f>
-        <v xml:space="preserve"> 3/2019</v>
+        <v xml:space="preserve"> 6/2019</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1368)</f>
-        <v xml:space="preserve"> $0.62</v>
+        <v xml:space="preserve"> $0.55</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1367)</f>
-        <v xml:space="preserve"> $0.59</v>
+        <v xml:space="preserve"> $0.53</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>3.0000000000000027E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="1"/>
-        <v>5.0847457627118689E-2</v>
+        <v>3.7735849056603807E-2</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1375)</f>
-        <v xml:space="preserve"> 1/29/19</v>
+        <v xml:space="preserve"> 4/30/19</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1374)</f>
@@ -1041,29 +1065,29 @@
       </c>
       <c r="D22" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1371)</f>
-        <v xml:space="preserve"> 12/2018</v>
+        <v xml:space="preserve"> 3/2019</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1373)</f>
-        <v xml:space="preserve"> $1.05</v>
+        <v xml:space="preserve"> $0.62</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1372)</f>
-        <v xml:space="preserve"> $1.04</v>
+        <v xml:space="preserve"> $0.59</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="1"/>
-        <v>9.6153846153846229E-3</v>
+        <v>5.0847457627118689E-2</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1380)</f>
-        <v xml:space="preserve"> 11/1/18</v>
+        <v xml:space="preserve"> 1/29/19</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1379)</f>
@@ -1071,29 +1095,29 @@
       </c>
       <c r="D23" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1376)</f>
-        <v xml:space="preserve"> 9/2018</v>
+        <v xml:space="preserve"> 12/2018</v>
       </c>
       <c r="E23" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1378)</f>
-        <v xml:space="preserve"> $0.73</v>
+        <v xml:space="preserve"> $1.05</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1377)</f>
-        <v xml:space="preserve"> $0.70</v>
+        <v xml:space="preserve"> $1.04</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>3.0000000000000027E-2</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="1"/>
-        <v>4.2857142857142899E-2</v>
+        <v>9.6153846153846229E-3</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1385)</f>
-        <v xml:space="preserve"> 7/31/18</v>
+        <v xml:space="preserve"> 11/1/18</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1384)</f>
@@ -1101,29 +1125,29 @@
       </c>
       <c r="D24" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1381)</f>
-        <v xml:space="preserve"> 6/2018</v>
+        <v xml:space="preserve"> 9/2018</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1383)</f>
-        <v xml:space="preserve"> $0.59</v>
+        <v xml:space="preserve"> $0.73</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1382)</f>
-        <v xml:space="preserve"> $0.54</v>
+        <v xml:space="preserve"> $0.70</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>4.9999999999999933E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="1"/>
-        <v>9.2592592592592463E-2</v>
+        <v>4.2857142857142899E-2</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1390)</f>
-        <v xml:space="preserve"> 5/1/18</v>
+        <v xml:space="preserve"> 7/31/18</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1389)</f>
@@ -1131,29 +1155,29 @@
       </c>
       <c r="D25" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1386)</f>
-        <v xml:space="preserve"> 3/2018</v>
+        <v xml:space="preserve"> 6/2018</v>
       </c>
       <c r="E25" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1388)</f>
-        <v xml:space="preserve"> $0.68</v>
+        <v xml:space="preserve"> $0.59</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1387)</f>
-        <v xml:space="preserve"> $0.67</v>
+        <v xml:space="preserve"> $0.54</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
+        <v>4.9999999999999933E-2</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="1"/>
-        <v>1.492537313432837E-2</v>
+        <v>9.2592592592592463E-2</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1395)</f>
-        <v xml:space="preserve"> 2/1/18</v>
+        <v xml:space="preserve"> 5/1/18</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1394)</f>
@@ -1161,15 +1185,15 @@
       </c>
       <c r="D26" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1391)</f>
-        <v xml:space="preserve"> 12/2017</v>
+        <v xml:space="preserve"> 3/2018</v>
       </c>
       <c r="E26" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1393)</f>
-        <v xml:space="preserve"> $0.97</v>
+        <v xml:space="preserve"> $0.68</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1392)</f>
-        <v xml:space="preserve"> $0.96</v>
+        <v xml:space="preserve"> $0.67</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
@@ -1177,13 +1201,13 @@
       </c>
       <c r="H26" s="5">
         <f t="shared" si="1"/>
-        <v>1.0416666666666676E-2</v>
+        <v>1.492537313432837E-2</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1400)</f>
-        <v xml:space="preserve"> 11/2/17</v>
+        <v xml:space="preserve"> 2/1/18</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1399)</f>
@@ -1191,23 +1215,23 @@
       </c>
       <c r="D27" s="4" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1396)</f>
-        <v xml:space="preserve"> 9/2017</v>
+        <v xml:space="preserve"> 12/2017</v>
       </c>
       <c r="E27" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1398)</f>
-        <v xml:space="preserve"> $0.52</v>
+        <v xml:space="preserve"> $0.97</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>[1]!RCHGetElementNumber(Ticker,1397)</f>
-        <v xml:space="preserve"> $0.47</v>
+        <v xml:space="preserve"> $0.96</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
-        <v>5.0000000000000044E-2</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="1"/>
-        <v>0.10638297872340435</v>
+        <v>1.0416666666666676E-2</v>
       </c>
     </row>
   </sheetData>
